--- a/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
   <si>
     <t>TÊN BUILDING</t>
   </si>
@@ -406,6 +406,30 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Elevator</t>
+  </si>
+  <si>
+    <t>ElevatorInfo</t>
+  </si>
+  <si>
+    <t>PowerBackup</t>
+  </si>
+  <si>
+    <t>CoolerSystem</t>
+  </si>
+  <si>
+    <t>Basement</t>
+  </si>
+  <si>
+    <t>TimeToSetup</t>
+  </si>
+  <si>
+    <t>TimeWork</t>
+  </si>
+  <si>
+    <t>ContractDuration</t>
   </si>
 </sst>
 </file>
@@ -1431,16 +1455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>370401</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57436</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>187971</xdr:rowOff>
+      <xdr:rowOff>187972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2163536</xdr:colOff>
+      <xdr:colOff>1483179</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1456,7 +1480,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="370401" y="187971"/>
+          <a:off x="2493115" y="187972"/>
           <a:ext cx="1793135" cy="1540137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1764,12 +1788,12 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" style="27" customWidth="1"/>
@@ -2216,6 +2240,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B29" s="52">
         <v>15</v>
       </c>
@@ -2232,6 +2259,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B30" s="52">
         <v>16</v>
       </c>
@@ -2247,7 +2277,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B31" s="52">
         <v>17</v>
       </c>
@@ -2264,6 +2297,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B32" s="52">
         <v>18</v>
       </c>
@@ -2280,6 +2316,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B33" s="52">
         <v>19</v>
       </c>
@@ -2410,6 +2449,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B40" s="52">
         <v>26</v>
       </c>
@@ -2426,6 +2468,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B41" s="52">
         <v>27</v>
       </c>
@@ -2442,6 +2487,9 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B42" s="53">
         <v>28</v>
       </c>

--- a/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
@@ -351,9 +351,6 @@
     <t>OfficeRank</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>BuildingDirection</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>ContractDuration</t>
+  </si>
+  <si>
+    <t>AddressInfo</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1788,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1808,7 +1808,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="84"/>
       <c r="D1" s="21" t="s">
@@ -1875,7 +1875,7 @@
     </row>
     <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="72">
@@ -1951,7 +1951,7 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>50</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B16" s="52">
         <v>2</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="52">
         <v>5</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="52">
         <v>6</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="52">
         <v>7</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="52">
         <v>8</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="52">
         <v>9</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="52">
         <v>10</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="52">
         <v>11</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="52">
         <v>12</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="52">
         <v>13</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="52">
         <v>14</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="52">
         <v>15</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="52">
         <v>16</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="52">
         <v>17</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="52">
         <v>18</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="33" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="52">
         <v>19</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="34" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="52">
         <v>20</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="52">
         <v>21</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="52">
         <v>22</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="52">
         <v>23</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="52">
         <v>24</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="52">
         <v>25</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="40" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="52">
         <v>26</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="41" spans="1:14" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="52">
         <v>27</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="42" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="53">
         <v>28</v>

--- a/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
@@ -672,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -969,6 +969,43 @@
       <left style="hair">
         <color auto="1"/>
       </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="double">
         <color auto="1"/>
       </right>
@@ -997,7 +1034,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1179,12 +1216,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1203,6 +1234,15 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1263,13 +1303,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>68034</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2068285</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1301,13 +1341,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>56326</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2216728</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2122714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1339,13 +1379,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2118245</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1377,13 +1417,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2060862</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2047876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1417,13 +1457,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152398</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2147453</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2038350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1785,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1810,7 +1850,7 @@
       <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="21" t="s">
         <v>53</v>
       </c>
@@ -1820,7 +1860,7 @@
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="84"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="23" t="s">
         <v>54</v>
       </c>
@@ -1832,7 +1872,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="84"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="23" t="s">
         <v>44</v>
       </c>
@@ -1844,7 +1884,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="84"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="23" t="s">
         <v>45</v>
       </c>
@@ -1856,7 +1896,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="C5" s="84"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="23"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -1864,90 +1904,92 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="84"/>
-      <c r="D6" s="86" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+    </row>
+    <row r="9" spans="1:9" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="171" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72">
+      <c r="B13" s="2"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="81">
         <v>0</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E13" s="82">
         <v>1</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F13" s="82">
         <v>2</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G13" s="82">
         <v>3</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H13" s="83">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-    </row>
-    <row r="10" spans="1:9" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-    </row>
-    <row r="11" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="171" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="82" t="s">
-        <v>58</v>
-      </c>
+      <c r="I13" s="80"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2311,7 +2353,7 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="80" t="s">
+      <c r="I32" s="78" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2330,7 +2372,7 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="80" t="s">
+      <c r="I33" s="78" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2482,7 +2524,7 @@
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
       <c r="H41" s="35"/>
-      <c r="I41" s="80" t="s">
+      <c r="I41" s="78" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2578,22 +2620,22 @@
         <v>46</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="F48" s="88" t="s">
+      <c r="F48" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" spans="3:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="F49" s="89" t="s">
+      <c r="F49" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
     </row>
     <row r="50" spans="3:12" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
@@ -2622,13 +2664,13 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="3:12" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="F52" s="88" t="s">
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="F52" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
     </row>
     <row r="53" spans="3:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="30"/>
@@ -2638,119 +2680,119 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="81" t="s">
+    <row r="54" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-    </row>
-    <row r="55" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="81" t="s">
+      <c r="D54" s="80"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+    </row>
+    <row r="55" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-    </row>
-    <row r="56" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="81" t="s">
+      <c r="D55" s="80"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+    </row>
+    <row r="56" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-    </row>
-    <row r="57" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-    </row>
-    <row r="58" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-    </row>
-    <row r="59" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-    </row>
-    <row r="60" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-    </row>
-    <row r="61" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="74"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-    </row>
-    <row r="62" spans="3:12" s="73" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="74"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+    </row>
+    <row r="57" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="72"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+    </row>
+    <row r="58" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="72"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+    </row>
+    <row r="59" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+    </row>
+    <row r="60" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+    </row>
+    <row r="61" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="72"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+    </row>
+    <row r="62" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="72"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.2"/>
     <row r="64" spans="3:12" hidden="1" x14ac:dyDescent="0.2"/>
@@ -2761,17 +2803,18 @@
     <row r="69" x14ac:dyDescent="0.2"/>
     <row r="70" x14ac:dyDescent="0.2"/>
     <row r="71" x14ac:dyDescent="0.2"/>
+    <row r="72" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="C1:C6"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="F49:H49"/>
-    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C10:H10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>TÊN BUILDING</t>
   </si>
@@ -276,75 +276,6 @@
     <t>57 D3, Phường 25, Quận Bình Thạnh, TP. HCM</t>
   </si>
   <si>
-    <t xml:space="preserve">Hướng dẫn: </t>
-  </si>
-  <si>
-    <t>Ký hiệu mã: thay đổi ngẫu nhiên, ban hành: cập nhật ngày tháng năm gửi, lần duyệt: 01</t>
-  </si>
-  <si>
-    <t>Công năng cho thuê: mật định là văn phòng</t>
-  </si>
-  <si>
-    <t>HƯỚNG DẪN THIẾT KẾ PHẦN MỀM</t>
-  </si>
-  <si>
-    <t>LẤY TỪ FILE SẢN PHẨM CHI TIẾT</t>
-  </si>
-  <si>
-    <t>LẤY TỪ=TÊN ĐƯỜNG+","+PHƯỜNG+","+QUẬN</t>
-  </si>
-  <si>
-    <t>LUÔN MẬT ĐỊNH LÀ VĂN PHÒNG</t>
-  </si>
-  <si>
-    <t>LẤY TỪ NĂM HOÀN THÀNH FILE CHI TIẾT</t>
-  </si>
-  <si>
-    <t>LẤY TỪ HƯỚNG TOÀ NHÀ FILE CHI TIẾT</t>
-  </si>
-  <si>
-    <t>LẤY TỪ FILE CHI TIẾT</t>
-  </si>
-  <si>
-    <t>LẤY TỪ DIỆN TÍCH SÀN TRONG FILE CHI TIẾT</t>
-  </si>
-  <si>
-    <t>NẾU Ở Ô DIỆN TÍCH GROSS CÓ SỐ THÌ GHI LÀ "Gross" nếu không có thì ghi là" Net"</t>
-  </si>
-  <si>
-    <t>Là giá thuê trong file sản phẩm chi tiết thêm ký hiệu $ phía trước</t>
-  </si>
-  <si>
-    <t>Lấy từ file sản phẩm chi tiết</t>
-  </si>
-  <si>
-    <t>Lấy từ file sản phẩm chi tiết thêm ký hiệu $ phía trước</t>
-  </si>
-  <si>
-    <t>Là diện tích trống được chọn để kết xuất file báo giá</t>
-  </si>
-  <si>
-    <t>Kết xuất từ file sản phẩm chi tiết</t>
-  </si>
-  <si>
-    <t>lấy từ file sản phẩm chi tiết</t>
-  </si>
-  <si>
-    <t>Bổ sung thêm cột thang máy phía sau file sản phẩm chi tiết và lấy vào đây</t>
-  </si>
-  <si>
-    <t>ghi là=số chô xe máy+"xe máy"+số chỗ xe hơi +"xe hơi"</t>
-  </si>
-  <si>
-    <t>Ghi là: = "Xe máy"+phí xe máy +", xe hơi"+phí xe hơi</t>
-  </si>
-  <si>
-    <t>Thêm cột Thời gian Set Up ở file sản phẩm và lấy vào file này</t>
-  </si>
-  <si>
-    <t>Thêm vào file chi tiết và lấy thông tin vào đây</t>
-  </si>
-  <si>
     <t>CompleteTime</t>
   </si>
   <si>
@@ -441,7 +372,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,14 +552,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,18 +584,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -1034,7 +947,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1048,11 +961,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1228,14 +1137,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,13 +1202,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>68034</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2068285</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2095500</xdr:rowOff>
@@ -1339,13 +1240,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>56326</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2216728</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2122714</xdr:rowOff>
@@ -1377,13 +1278,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>81642</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>2118245</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2095500</xdr:rowOff>
@@ -1415,13 +1316,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2060862</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2047876</xdr:rowOff>
@@ -1455,13 +1356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>152398</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2147453</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2038350</xdr:rowOff>
@@ -1496,13 +1397,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57436</xdr:colOff>
+      <xdr:colOff>288757</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>187972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1483179</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2081892</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>40823</xdr:rowOff>
     </xdr:to>
@@ -1520,7 +1421,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2493115" y="187972"/>
+          <a:off x="656150" y="187972"/>
           <a:ext cx="1793135" cy="1540137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1825,996 +1726,853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:I35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="73.7109375" style="2" customWidth="1"/>
-    <col min="10" max="12" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="21" t="s">
+    <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="79"/>
+      <c r="C1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="85"/>
-      <c r="D2" s="23" t="s">
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="79"/>
+      <c r="C2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="85"/>
-      <c r="D3" s="23" t="s">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="79"/>
+      <c r="C3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="85"/>
-      <c r="D4" s="23" t="s">
+    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="79"/>
+      <c r="C4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="23" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="C5" s="85"/>
+    <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="79"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="85"/>
-      <c r="D6" s="87" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="79"/>
+      <c r="C6" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:9" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="86" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-    </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="84" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="1:8" s="27" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="91" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="171" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="65" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="171" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="80" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="75">
+        <v>0</v>
+      </c>
+      <c r="D13" s="76">
+        <v>1</v>
+      </c>
+      <c r="E13" s="76">
+        <v>2</v>
+      </c>
+      <c r="F13" s="76">
+        <v>3</v>
+      </c>
+      <c r="G13" s="77">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50">
+        <v>1</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50">
+        <v>2</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50">
+        <v>3</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50">
+        <v>4</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>5</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>6</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
+        <v>7</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="81">
-        <v>0</v>
-      </c>
-      <c r="E13" s="82">
-        <v>1</v>
-      </c>
-      <c r="F13" s="82">
-        <v>2</v>
-      </c>
-      <c r="G13" s="82">
-        <v>3</v>
-      </c>
-      <c r="H13" s="83">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50">
+        <v>8</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="80"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50">
+        <v>9</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50">
+        <v>10</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50">
+        <v>11</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="50">
+        <v>12</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50">
+        <v>13</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="50">
+        <v>14</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="50">
+        <v>15</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="50">
+        <v>16</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="50">
+        <v>17</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="50">
+        <v>18</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="50">
+        <v>19</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="52">
-        <v>1</v>
-      </c>
-      <c r="C15" s="61" t="s">
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50">
+        <v>20</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="50">
+        <v>21</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="50">
         <v>22</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="52">
-        <v>2</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="52">
-        <v>3</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="52">
-        <v>4</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B36" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="50">
+        <v>23</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="50">
+        <v>24</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="50">
+        <v>25</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="50">
+        <v>26</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="52">
-        <v>5</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="52">
-        <v>6</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="50">
+        <v>27</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="52">
-        <v>7</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51">
+        <v>28</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="52">
-        <v>8</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="52">
-        <v>9</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="52">
-        <v>10</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="52">
-        <v>11</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="52">
-        <v>12</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="52">
-        <v>13</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="52">
-        <v>14</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="52">
-        <v>15</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="52">
-        <v>16</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="52">
-        <v>17</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="52">
-        <v>18</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="52">
-        <v>19</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="52">
-        <v>20</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="52">
-        <v>21</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="52">
-        <v>22</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="52">
-        <v>23</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="52">
-        <v>24</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="52">
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="12"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="E48" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="52">
-        <v>26</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="52">
-        <v>27</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="53">
-        <v>28</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="1:14" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="16"/>
-      <c r="D46" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:14" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="F48" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-    </row>
-    <row r="49" spans="3:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+    </row>
+    <row r="49" spans="2:11" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="F49" s="90" t="s">
+      <c r="C49" s="4"/>
+      <c r="E49" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-    </row>
-    <row r="50" spans="3:12" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+    </row>
+    <row r="50" spans="2:11" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="11"/>
+      <c r="C50" s="4"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="3:12" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
+    </row>
+    <row r="51" spans="2:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="11"/>
+      <c r="C51" s="18"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="3:12" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="F52" s="89" t="s">
+    </row>
+    <row r="52" spans="2:11" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="E52" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-    </row>
-    <row r="53" spans="3:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+    </row>
+    <row r="53" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-    </row>
-    <row r="55" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="80"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="76"/>
-    </row>
-    <row r="56" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="80"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="76"/>
-    </row>
-    <row r="57" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-    </row>
-    <row r="58" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-    </row>
-    <row r="59" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-    </row>
-    <row r="60" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-    </row>
-    <row r="61" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-    </row>
-    <row r="62" spans="3:12" s="71" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="72"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:12" hidden="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="54" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+    </row>
+    <row r="55" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="70"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+    </row>
+    <row r="56" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="70"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+    </row>
+    <row r="57" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+    </row>
+    <row r="58" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+    </row>
+    <row r="59" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="70"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="65" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="66" x14ac:dyDescent="0.2"/>
+    <row r="67" x14ac:dyDescent="0.2"/>
+    <row r="68" x14ac:dyDescent="0.2"/>
     <row r="69" x14ac:dyDescent="0.2"/>
     <row r="70" x14ac:dyDescent="0.2"/>
     <row r="71" x14ac:dyDescent="0.2"/>
     <row r="72" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C1:C6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOP\OTHER\KimQuang\Source\Service.Data\_Template\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="11940"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="25200" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="thư báo giá " sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'thư báo giá '!$A$1:$I$59</definedName>
+  </definedNames>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>TÊN BUILDING</t>
   </si>
@@ -45,19 +43,10 @@
     <t>Độ cao trần</t>
   </si>
   <si>
-    <t>Thang máy</t>
-  </si>
-  <si>
     <t>Thông số thang máy</t>
   </si>
   <si>
-    <t>Tầng hầm</t>
-  </si>
-  <si>
     <t>Hệ thống máy lạnh</t>
-  </si>
-  <si>
-    <t>Số chỗ đậu xe</t>
   </si>
   <si>
     <t>Phí gửi xe (excl, VAT)</t>
@@ -276,15 +265,30 @@
     <t>57 D3, Phường 25, Quận Bình Thạnh, TP. HCM</t>
   </si>
   <si>
+    <t>Vị trí đậu xe</t>
+  </si>
+  <si>
+    <t>[Column]</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>OfficeRank</t>
+  </si>
+  <si>
+    <t>AddressInfo</t>
+  </si>
+  <si>
     <t>CompleteTime</t>
   </si>
   <si>
-    <t>OfficeRank</t>
-  </si>
-  <si>
     <t>BuildingDirection</t>
   </si>
   <si>
+    <t>Structure</t>
+  </si>
+  <si>
     <t>FloorArea</t>
   </si>
   <si>
@@ -309,48 +313,30 @@
     <t>CeilingHeight</t>
   </si>
   <si>
-    <t>PackingCount</t>
+    <t>Elevator</t>
+  </si>
+  <si>
+    <t>PowerBackup</t>
+  </si>
+  <si>
+    <t>CoolerSystem</t>
   </si>
   <si>
     <t>PackingFee</t>
   </si>
   <si>
+    <t>OtherFee</t>
+  </si>
+  <si>
+    <t>ElectricityFee</t>
+  </si>
+  <si>
     <t>PayByDeposit</t>
   </si>
   <si>
     <t>PayByCredit</t>
   </si>
   <si>
-    <t>Struture</t>
-  </si>
-  <si>
-    <t>ElectricityFee</t>
-  </si>
-  <si>
-    <t>[Column]</t>
-  </si>
-  <si>
-    <t>OtherFee</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Elevator</t>
-  </si>
-  <si>
-    <t>ElevatorInfo</t>
-  </si>
-  <si>
-    <t>PowerBackup</t>
-  </si>
-  <si>
-    <t>CoolerSystem</t>
-  </si>
-  <si>
-    <t>Basement</t>
-  </si>
-  <si>
     <t>TimeToSetup</t>
   </si>
   <si>
@@ -360,19 +346,19 @@
     <t>ContractDuration</t>
   </si>
   <si>
-    <t>AddressInfo</t>
+    <t>PackingPlace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,37 +507,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -931,23 +886,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -961,7 +904,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1077,9 +1024,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1125,18 +1069,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,6 +1078,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1169,32 +1102,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1397,15 +1310,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>288757</xdr:colOff>
+      <xdr:colOff>370401</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>187972</xdr:rowOff>
+      <xdr:rowOff>187971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2081892</xdr:colOff>
+      <xdr:colOff>2163536</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1421,7 +1334,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="656150" y="187972"/>
+          <a:off x="370401" y="187971"/>
           <a:ext cx="1793135" cy="1540137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1725,859 +1638,822 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="3" max="3" width="34.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="79"/>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1">
+      <c r="B1" s="75"/>
+      <c r="C1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="24"/>
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="24.95" customHeight="1">
+      <c r="B2" s="75"/>
+      <c r="C2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24.95" customHeight="1">
+      <c r="B3" s="75"/>
+      <c r="C3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1">
+      <c r="B4" s="75"/>
+      <c r="C4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23.25">
+      <c r="B5" s="75"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="42" customHeight="1">
+      <c r="B6" s="75"/>
+      <c r="C6" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:9"/>
+    <row r="8" spans="1:9" ht="23.25" hidden="1" customHeight="1">
+      <c r="B8" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+    </row>
+    <row r="9" spans="1:9" s="29" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B9" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B10" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="170.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="12" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="70">
+        <v>0</v>
+      </c>
+      <c r="D13" s="71">
+        <v>1</v>
+      </c>
+      <c r="E13" s="71">
+        <v>2</v>
+      </c>
+      <c r="F13" s="71">
+        <v>3</v>
+      </c>
+      <c r="G13" s="72">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1">
+      <c r="A14" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1">
+      <c r="A15" s="52">
+        <v>1</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1">
+      <c r="A16" s="52">
+        <v>2</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="52">
+        <v>3</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="52">
+        <v>4</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="52">
+        <v>5</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="52">
+        <v>6</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="52">
+        <v>7</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="52">
+        <v>8</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="52">
+        <v>9</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="52">
+        <v>10</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="52">
+        <v>11</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1">
+      <c r="A26" s="52">
+        <v>12</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="I26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1">
+      <c r="A27" s="52">
+        <v>13</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="I27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="52">
+        <v>14</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="52">
+        <v>15</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A30" s="52">
+        <v>16</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="52">
+        <v>17</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="52">
+        <v>18</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A33" s="52">
+        <v>19</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="52">
+        <v>20</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="79"/>
-      <c r="C2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="22" t="s">
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="52">
+        <v>21</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="52">
+        <v>22</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="52">
+        <v>23</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="52">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="79"/>
-      <c r="C3" s="21" t="s">
+      <c r="B38" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A39" s="52">
+        <v>25</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A40" s="52">
+        <v>26</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="7"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B44" s="16"/>
+      <c r="C44" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:14" s="3" customFormat="1" ht="24" customHeight="1">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="E46" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+    </row>
+    <row r="47" spans="1:14" s="3" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="79"/>
-      <c r="C4" s="21" t="s">
+      <c r="C47" s="4"/>
+      <c r="E47" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+    </row>
+    <row r="48" spans="1:14" s="3" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="79"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="79"/>
-      <c r="C6" s="81" t="s">
+      <c r="C48" s="4"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="2:12" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="2:12" s="3" customFormat="1" ht="18.95" customHeight="1">
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="E50" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:8" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="1:8" s="27" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-    </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="171" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="75">
-        <v>0</v>
-      </c>
-      <c r="D13" s="76">
-        <v>1</v>
-      </c>
-      <c r="E13" s="76">
-        <v>2</v>
-      </c>
-      <c r="F13" s="76">
-        <v>3</v>
-      </c>
-      <c r="G13" s="77">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
-        <v>1</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50">
-        <v>2</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
-        <v>3</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
-        <v>4</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
-        <v>5</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
-        <v>6</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
-        <v>7</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50">
-        <v>8</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50">
-        <v>9</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50">
-        <v>10</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
-        <v>11</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
-        <v>12</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
-        <v>13</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
-        <v>14</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50">
-        <v>15</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50">
-        <v>16</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50">
-        <v>17</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50">
-        <v>18</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50">
-        <v>19</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50">
-        <v>20</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50">
-        <v>21</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50">
-        <v>22</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
-        <v>23</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="50">
-        <v>24</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="50">
-        <v>25</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="50">
-        <v>26</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50">
-        <v>27</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51">
-        <v>28</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="12"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-      <c r="C46" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="E48" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-    </row>
-    <row r="49" spans="2:11" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="E49" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-    </row>
-    <row r="50" spans="2:11" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="9"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="2:11" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="2:11" s="3" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="E52" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-    </row>
-    <row r="53" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
-    </row>
-    <row r="55" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="70"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-    </row>
-    <row r="56" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-    </row>
-    <row r="57" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="70"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-    </row>
-    <row r="58" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="70"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-    </row>
-    <row r="59" spans="2:11" s="69" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="70"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="66" x14ac:dyDescent="0.2"/>
-    <row r="67" x14ac:dyDescent="0.2"/>
-    <row r="68" x14ac:dyDescent="0.2"/>
-    <row r="69" x14ac:dyDescent="0.2"/>
-    <row r="70" x14ac:dyDescent="0.2"/>
-    <row r="71" x14ac:dyDescent="0.2"/>
-    <row r="72" x14ac:dyDescent="0.2"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+    </row>
+    <row r="51" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="2:12" ht="18">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" hidden="1"/>
+    <row r="54" spans="2:12" hidden="1">
+      <c r="I54" s="73"/>
+    </row>
+    <row r="55" spans="2:12" hidden="1">
+      <c r="I55" s="73"/>
+    </row>
+    <row r="56" spans="2:12" hidden="1">
+      <c r="I56" s="73"/>
+    </row>
+    <row r="57" spans="2:12" hidden="1">
+      <c r="I57" s="73"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="I58" s="73"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="I59" s="73"/>
+    </row>
+    <row r="60" spans="2:12"/>
+    <row r="61" spans="2:12"/>
+    <row r="62" spans="2:12"/>
+    <row r="63" spans="2:12" hidden="1"/>
+    <row r="64" spans="2:12" hidden="1"/>
+    <row r="65" hidden="1"/>
+    <row r="66" hidden="1"/>
+    <row r="67" hidden="1"/>
+    <row r="68" hidden="1"/>
+    <row r="69" hidden="1"/>
+    <row r="70" hidden="1"/>
+    <row r="71" hidden="1"/>
+    <row r="72" hidden="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E47:G47"/>
     <mergeCell ref="B10:G10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="50" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2587,12 +2463,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
@@ -88,9 +88,6 @@
     <t>THƯ CHÀO GIÁ</t>
   </si>
   <si>
-    <t>Ký hiệu mã : 01CST</t>
-  </si>
-  <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN DỊCH VỤ ĐỊA ỐC KIM QUANG
 </t>
   </si>
@@ -145,29 +142,6 @@
   <si>
     <t xml:space="preserve"> Sau khi được tiếp xúc tư vấn và nhận được thông tin yêu cầu của quý doanh nghiệp chúng tôi trân trọng gởi đến quý doanh nghiệp Bảng Báo Giá Văn Phòng như sau :
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kính gửi:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Công Ty ABC
-           </t>
-    </r>
   </si>
   <si>
     <t>Điện thoại: 086 6790 847   Hotline: 0946 395 665</t>
@@ -252,12 +226,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Ban hành    : 19/05/2014</t>
-  </si>
-  <si>
-    <t>Lần duyệt    : 01</t>
-  </si>
-  <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN ĐỊA ỐC KIM QUANG
 </t>
   </si>
@@ -347,6 +315,38 @@
   </si>
   <si>
     <t>PackingPlace</t>
+  </si>
+  <si>
+    <t>Ký hiệu mã : {{ReportCode}}</t>
+  </si>
+  <si>
+    <t>Ban hành    : {{ReportDate}}</t>
+  </si>
+  <si>
+    <t>Lần duyệt    : {{ReportNumber}}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kính gửi:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {{ReportReceiver}}
+           </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1641,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -1663,50 +1663,50 @@
     <row r="1" spans="1:9" ht="35.25" customHeight="1">
       <c r="B1" s="75"/>
       <c r="C1" s="21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="24"/>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1">
       <c r="B2" s="75"/>
       <c r="C2" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="24" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1">
       <c r="B3" s="75"/>
       <c r="C3" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1">
       <c r="B4" s="75"/>
       <c r="C4" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="23" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.25">
@@ -1730,7 +1730,7 @@
     <row r="7" spans="1:9"/>
     <row r="8" spans="1:9" ht="23.25" hidden="1" customHeight="1">
       <c r="B8" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="9" spans="1:9" s="29" customFormat="1" ht="45.75" customHeight="1">
       <c r="B9" s="74" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
       <c r="B10" s="81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
@@ -1771,7 +1771,7 @@
     <row r="12" spans="1:9" s="1" customFormat="1" ht="170.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="68"/>
@@ -1800,12 +1800,12 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1">
       <c r="A14" s="51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>0</v>
@@ -1817,7 +1817,7 @@
       <c r="G14" s="66"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1">
@@ -1834,7 +1834,7 @@
       <c r="G15" s="63"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1">
@@ -1851,7 +1851,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1892,7 +1892,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1900,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="34"/>
@@ -1909,7 +1909,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1926,7 +1926,7 @@
       <c r="G20" s="35"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1934,7 +1934,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="34"/>
@@ -1943,7 +1943,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1960,7 +1960,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1968,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="36"/>
@@ -1977,7 +1977,7 @@
       <c r="G23" s="37"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="36"/>
@@ -1994,7 +1994,7 @@
       <c r="G24" s="37"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2002,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="36"/>
@@ -2011,7 +2011,7 @@
       <c r="G25" s="37"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1">
@@ -2019,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="38"/>
@@ -2027,7 +2027,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="39"/>
       <c r="I26" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1">
@@ -2035,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="38"/>
@@ -2043,7 +2043,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="39"/>
       <c r="I27" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2060,7 +2060,7 @@
       <c r="G28" s="41"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2077,7 +2077,7 @@
       <c r="G29" s="41"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1">
@@ -2094,7 +2094,7 @@
       <c r="G30" s="35"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2111,7 +2111,7 @@
       <c r="G31" s="41"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2119,7 +2119,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="40"/>
@@ -2128,7 +2128,7 @@
       <c r="G32" s="41"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="1" customFormat="1" ht="42.75" customHeight="1">
@@ -2145,7 +2145,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2162,7 +2162,7 @@
       <c r="G34" s="35"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2179,7 +2179,7 @@
       <c r="G35" s="41"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2196,7 +2196,7 @@
       <c r="G36" s="41"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2213,7 +2213,7 @@
       <c r="G37" s="41"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2230,7 +2230,7 @@
       <c r="G38" s="41"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="40.5" customHeight="1">
@@ -2247,7 +2247,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
@@ -2264,7 +2264,7 @@
       <c r="G40" s="55"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1">
@@ -2281,10 +2281,10 @@
       <c r="A42" s="3"/>
       <c r="B42" s="13"/>
       <c r="C42" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="15"/>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="B43" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="E43" s="17"/>
       <c r="G43" s="17"/>
@@ -2319,10 +2319,10 @@
     <row r="44" spans="1:14" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="B44" s="16"/>
       <c r="C44" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="17"/>
       <c r="G44" s="17"/>
@@ -2339,29 +2339,29 @@
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="B46" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="4"/>
       <c r="E46" s="79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="79"/>
       <c r="G46" s="79"/>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47" s="4"/>
       <c r="E47" s="80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="4"/>
       <c r="E48" s="11"/>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="49" spans="2:12" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B49" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="20"/>
       <c r="E49" s="11"/>
@@ -2389,7 +2389,7 @@
       <c r="B50" s="78"/>
       <c r="C50" s="78"/>
       <c r="E50" s="79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="79"/>
       <c r="G50" s="79"/>

--- a/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
@@ -171,58 +171,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lê Thuỳ Trâm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Trưởng Phòng Kinh Doanh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     Tel : (+84 8) 6790 847 I</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Call: 0938.59.92.93</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     Mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> jenny.kimquang@gmail.com</t>
-    </r>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -348,6 +296,15 @@
            </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">     Mail: {{Email}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     {{FullName) ({{Position}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Tel : {{TelePhone}} I Call: {{CellPhone}}</t>
+  </si>
 </sst>
 </file>
 
@@ -358,7 +315,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,13 +358,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -907,11 +857,11 @@
     <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,33 +869,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -957,11 +907,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,10 +923,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,7 +944,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,25 +953,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,7 +989,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1007,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,24 +1028,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -1663,26 +1613,26 @@
     <row r="1" spans="1:9" ht="35.25" customHeight="1">
       <c r="B1" s="75"/>
       <c r="C1" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="24"/>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1">
       <c r="B2" s="75"/>
       <c r="C2" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1">
@@ -1694,7 +1644,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1">
@@ -1706,7 +1656,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.25">
@@ -1740,7 +1690,7 @@
     </row>
     <row r="9" spans="1:9" s="29" customFormat="1" ht="45.75" customHeight="1">
       <c r="B9" s="74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -1800,12 +1750,12 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1">
       <c r="A14" s="51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>0</v>
@@ -1817,7 +1767,7 @@
       <c r="G14" s="66"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" thickTop="1">
@@ -1834,7 +1784,7 @@
       <c r="G15" s="63"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1">
@@ -1851,7 +1801,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1892,7 +1842,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1909,7 +1859,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1926,7 +1876,7 @@
       <c r="G20" s="35"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1943,7 +1893,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1960,7 +1910,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1977,7 +1927,7 @@
       <c r="G23" s="37"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1994,7 +1944,7 @@
       <c r="G24" s="37"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2011,7 +1961,7 @@
       <c r="G25" s="37"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1">
@@ -2027,7 +1977,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="39"/>
       <c r="I26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1">
@@ -2043,7 +1993,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="39"/>
       <c r="I27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2060,7 +2010,7 @@
       <c r="G28" s="41"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2077,7 +2027,7 @@
       <c r="G29" s="41"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1">
@@ -2094,7 +2044,7 @@
       <c r="G30" s="35"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2111,7 +2061,7 @@
       <c r="G31" s="41"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2119,7 +2069,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="40"/>
@@ -2128,7 +2078,7 @@
       <c r="G32" s="41"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="1" customFormat="1" ht="42.75" customHeight="1">
@@ -2145,7 +2095,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2162,7 +2112,7 @@
       <c r="G34" s="35"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2179,7 +2129,7 @@
       <c r="G35" s="41"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2196,7 +2146,7 @@
       <c r="G36" s="41"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2213,7 +2163,7 @@
       <c r="G37" s="41"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2230,7 +2180,7 @@
       <c r="G38" s="41"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="1" customFormat="1" ht="40.5" customHeight="1">
@@ -2247,7 +2197,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
@@ -2264,7 +2214,7 @@
       <c r="G40" s="55"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1">
@@ -2350,7 +2300,7 @@
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="B47" s="4" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C47" s="4"/>
       <c r="E47" s="80" t="s">
@@ -2361,7 +2311,7 @@
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C48" s="4"/>
       <c r="E48" s="11"/>
@@ -2374,7 +2324,7 @@
     </row>
     <row r="49" spans="2:12" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B49" s="4" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C49" s="20"/>
       <c r="E49" s="11"/>

--- a/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
+++ b/Service.Data/_Template/Excel/Template_BaoGiaChiTiet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>TÊN BUILDING</t>
   </si>
@@ -300,10 +300,13 @@
     <t xml:space="preserve">     Mail: {{Email}}</t>
   </si>
   <si>
-    <t xml:space="preserve">     {{FullName) ({{Position}})</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Tel : {{TelePhone}} I Call: {{CellPhone}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     {{FullName}} ({{Position}})</t>
+  </si>
+  <si>
+    <t>Image:FrontImage:200x200</t>
   </si>
 </sst>
 </file>
@@ -1065,200 +1068,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68034</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2068285</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2095500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="cho-thue-van-phong-quan-1-MTL-building-2.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2803070" y="3728357"/>
-          <a:ext cx="2000251" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>56326</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2216728</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2122714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="cho-thue-van-phong-quan-1-harmony-building-dia-oc-kim-quang-01(1).jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4368553" y="248639"/>
-          <a:ext cx="2160402" cy="2081893"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2118245</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2095500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="cho-thue-van-phong-quan-1-Tuildonai-building.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6835733" y="275854"/>
-          <a:ext cx="2048494" cy="2027464"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104773</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2060862</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2047876</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9110228" y="236394"/>
-          <a:ext cx="1956089" cy="2019300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152398</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2147453</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2038350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11990612" y="3671207"/>
-          <a:ext cx="1995055" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>370401</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1276,7 +1085,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1592,7 +1401,7 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -1729,8 +1538,11 @@
       <c r="F12" s="68"/>
       <c r="G12" s="69"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="12" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="I12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="9.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="64"/>
       <c r="C13" s="70">
@@ -2300,7 +2112,7 @@
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="B47" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" s="4"/>
       <c r="E47" s="80" t="s">
@@ -2311,7 +2123,7 @@
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="31.5" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="4"/>
       <c r="E48" s="11"/>
